--- a/biology/Médecine/Fédération_internationale_des_associations_d'étudiants_en_médecine/Fédération_internationale_des_associations_d'étudiants_en_médecine.xlsx
+++ b/biology/Médecine/Fédération_internationale_des_associations_d'étudiants_en_médecine/Fédération_internationale_des_associations_d'étudiants_en_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_associations_d%27%C3%A9tudiants_en_m%C3%A9decine</t>
+          <t>Fédération_internationale_des_associations_d'étudiants_en_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération internationale des associations d'étudiants en médecine, plus souvent désignée par le sigle IFMSA (pour l'anglais International Federation of Medical Student's Associations) est une fédération regroupant des associations d'étudiants en médecine du monde entier, afin de partager idées et expériences. Des représentants associatifs de tous pays se regroupent en congrès deux fois par an afin de discuter sur des sujets aussi divers que les études médicales, la démographie médicale, la santé publique ou la solidarité internationale.
 Elle s'organise en six comités différents : 
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_associations_d%27%C3%A9tudiants_en_m%C3%A9decine</t>
+          <t>Fédération_internationale_des_associations_d'étudiants_en_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,9 +530,11 @@
           <t>Programme SCOPE</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aujourd'hui 20 UFR en France[1] participent au programme d'échange SCOPE : Amiens, Besançon, Bobigny, Bordeaux, Caen, Clermont-Ferrand, Créteil, Grenoble, Lille, Marseille, Montpellier, Nice, Paris 7, Paris Ouest, Poitiers, Reims, Saint-Étienne, Dijon, Toulouse et Tours;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aujourd'hui 20 UFR en France participent au programme d'échange SCOPE : Amiens, Besançon, Bobigny, Bordeaux, Caen, Clermont-Ferrand, Créteil, Grenoble, Lille, Marseille, Montpellier, Nice, Paris 7, Paris Ouest, Poitiers, Reims, Saint-Étienne, Dijon, Toulouse et Tours;
 et quatre participent à SCORE : Marseille, Montpellier, Rouen et Toulouse.
 Ce programme fonctionne grâce aux Comités Locaux (Local Committee) constitués d'étudiants en médecine bénévoles qui coordonnent ces échanges au niveau local : ce sont des LEO's et LORE's (Local Exchange Officer and Local Officer on Research Exchange).
 Ce sont les interlocuteurs indispensables entre le responsable national (NEO ou NORE) et les étudiants en médecine de leur UFR qui partent, les Outgoings, et ceux qui viennent, les Incomings.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_associations_d%27%C3%A9tudiants_en_m%C3%A9decine</t>
+          <t>Fédération_internationale_des_associations_d'étudiants_en_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Congrès de l'IFMSA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(Abréviations : AM = August Meeting, MM = March Meeting, GA = General Assembly, ITCMS = International Training Congress for Medical Students, EOM = Exchange Officer Meeting)
 </t>
